--- a/medicine/Sexualité et sexologie/Les_Plaisirs_de_la_chair/Les_Plaisirs_de_la_chair.xlsx
+++ b/medicine/Sexualité et sexologie/Les_Plaisirs_de_la_chair/Les_Plaisirs_de_la_chair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Plaisirs de la chair (悦楽, Etsuraku?) est un film japonais réalisé par Nagisa Ōshima, sorti en 1965.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors qu'il s'est fait assassin dans le but de venger son amour secret Shoko, Wakizaka se fait proposer par l'unique témoin du meurtre, un fonctionnaire ayant détourné cent millions de yens, de garder le butin jusqu'à sa sortie de prison.
 En réalité, Shoko a épousé un autre homme. Wakizaka décide finalement de dépenser tout l'argent en un an, puis de se suicider.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Les Plaisirs de la chair
 Titre original : 悦楽 (Etsuraku?)
@@ -558,10 +574,10 @@
 Pays de production :  Japon
 Langue originale : japonais
 Format : couleur — 2,35:1 — son mono — 35 mm
-Durée : 90 minutes[1]
+Durée : 90 minutes
 Dates de sortie :
-Japon : 25 août 1965[1]
-France : 4 juin 1986[2]
+Japon : 25 août 1965
+France : 4 juin 1986
 Dates de sortie DVD : 18 juin 2008</t>
         </is>
       </c>
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Katsuo Nakamura : Wakizaka
 Mariko Kaga : Shoko
